--- a/GitHub 记录.xlsx
+++ b/GitHub 记录.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="创建库" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Git术语" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>1. 账户注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,153 @@
   </si>
   <si>
     <t>分支内容修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择分支中的“README.md”文件进行修改操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件内容，在修改完成后点击“Commit changes”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull Requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择标签“Pull Request”，点击绿色按钮“New pull request”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较2个分支的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色底为删除，绿色底为新增。修改内容是删除后新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差异确认后点击绿色按钮“Create Pull Request”，输入简要说明后，再次点击绿色按钮“Create Pull Request”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull Request 提交后，再与master合并前，在分支的页面可以看到“View #1”按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次提交Pull Request，在合并前只会看到最后一次的提交内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull Request 标签内查看之前提交的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绿色按钮“Merge pull request”，合并分支内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库
+Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个仓库包括了所有的版本信息、所有的分支和标记信息。
+在Git中仓库的每份拷贝都是完整的。仓库让你可以从中取得你的工作副本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支
+Branches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个分支意味着一个独立的、拥有自己历史信息的代码线（code line）。
+你可以从已有的代码中生成一个新的分支，这个分支与剩余的分支完全独立。
+默认的分支往往是叫master。
+用户可以选择一个分支，选择一个分支叫做checkout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记
+Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个标记指的是某个分支某个特定时间点的状态。通过标记，可以很方便的切换到标记时的状态，
+例如2009年1月25号在testing分支上的代码状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交
+Commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交代码后，仓库会创建一个新的版本。这个版本可以在后续被重新获得。每次提交都包括作者和提交者，作者和提交者可以是不同的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL用来标识一个仓库的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订
+Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来表示代码的一个版本状态。Git通过用SHA1 hash算法表示的id来标识不同的版本。每一个 SHA1 id都是160位长,16进制标识的字符串.最新的版本可以通过HEAD来获取.之前的版本可以通过"HEAD~1"来获取，以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取
+Pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过拉取，可以从其他的仓库中获取最新的更改。在第二个仓库中，做一些更改，然后将更改推送到远端的仓库中。然后第一个仓库拉取这些更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送
+push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的，Git只会推送匹配的分支的远端仓库。这意味在使用git push命令默认推送你的分支之前，需要手工的推送一次这个分支。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果两个不同的开发人员对同一个文件进行了修改，那么合并冲突就会发生。而Git没有智能到自动解决合并两个修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变基
+Rebase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过rebase命令可以合并多个commit为一个。这样用户push更改到远端仓库的时候就可以先修改commit历史
+也可以对两个分支进行rebase操作。如下所述，merge命令合并两个分支的更改。rebase命令为一个分支的更改生成一个补丁，然后应用这个补丁到另一分支中
+使用merge和rebase，最后的源代码是一样的，但是使用rebase产生的commit历史更加的少，而且历史记录看上去更加的线性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,8 +282,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,6 +787,778 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24860250"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467226" y="26308051"/>
+          <a:ext cx="190500" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29489400"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="29489400"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33947100"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38919150"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="39423975"/>
+          <a:ext cx="723900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="39700200"/>
+          <a:ext cx="723900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>132820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43548300"/>
+          <a:ext cx="4995239" cy="4247620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48006000"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52635150"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57264300"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="58531125"/>
+          <a:ext cx="723900" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61893450"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="66351150"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70808850"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="75438000"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194639</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>94746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="79895700"/>
+          <a:ext cx="4995239" cy="4038096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -928,7 +1854,7 @@
   <dimension ref="A3:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A143"/>
+  <dimension ref="A2:A439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="Q131" sqref="Q131"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,6 +1968,71 @@
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1053,9 +2044,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="135" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/GitHub 记录.xlsx
+++ b/GitHub 记录.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="创建库" sheetId="2" r:id="rId2"/>
     <sheet name="Git术语" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="本地Git" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>1. 账户注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,14 @@
     <t>通过rebase命令可以合并多个commit为一个。这样用户push更改到远端仓库的时候就可以先修改commit历史
 也可以对两个分支进行rebase操作。如下所述，merge命令合并两个分支的更改。rebase命令为一个分支的更改生成一个补丁，然后应用这个补丁到另一分支中
 使用merge和rebase，最后的源代码是一样的，但是使用rebase产生的commit历史更加的少，而且历史记录看上去更加的线性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd D:/Git/gitLearning/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定本地库目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="P130" sqref="P130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,14 +2155,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
